--- a/data/trans_bre/POLIPATOLOGIA_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,4</t>
+          <t>3,43; 8,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 13,29</t>
+          <t>7,26; 13,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,23</t>
+          <t>8,68; 15,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 20,03</t>
+          <t>11,69; 20,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,41; 138,53</t>
+          <t>38,58; 135,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,71; 160,84</t>
+          <t>62,76; 159,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,8; 198,85</t>
+          <t>80,55; 195,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,49; 103,96</t>
+          <t>46,05; 99,98</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,53</t>
+          <t>0,33; 2,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,64</t>
+          <t>1,29; 3,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,32</t>
+          <t>2,92; 5,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 39,08</t>
+          <t>4,36; 35,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 221,39</t>
+          <t>12,12; 213,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,5; 351,35</t>
+          <t>68,53; 335,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>123,63; 368,92</t>
+          <t>126,05; 375,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,68; 717,53</t>
+          <t>68,87; 712,56</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,34</t>
+          <t>-2,17; 1,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,23</t>
+          <t>-0,08; 4,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,21</t>
+          <t>-0,83; 3,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,49</t>
+          <t>2,02; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 124,38</t>
+          <t>-71,78; 125,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 915,89</t>
+          <t>-24,99; 983,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 289,17</t>
+          <t>-37,49; 302,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,22; 212,44</t>
+          <t>37,66; 211,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,42</t>
+          <t>2,26; 4,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,22</t>
+          <t>4,85; 7,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,57</t>
+          <t>5,13; 7,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 32,33</t>
+          <t>7,74; 27,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,27; 145,6</t>
+          <t>59,86; 150,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>107,54; 214,6</t>
+          <t>112,38; 218,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>125,2; 241,69</t>
+          <t>127,92; 246,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,63; 402,87</t>
+          <t>91,39; 371,59</t>
         </is>
       </c>
     </row>
